--- a/data/trans_orig/P19C11_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C11_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F4E0755-8B65-4FB2-9213-B98BCFC25B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86648861-CA28-42A9-99B0-AC75F421F788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{123FF24C-6295-4B6F-BE57-2BFF1CF6E3F7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E64CAA20-59A4-4A5B-A9A9-8D6F9A825E84}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="177">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por implantes / solo 2023 en 2023 (Tasa respuesta: 96,88%)</t>
   </si>
@@ -74,502 +74,496 @@
     <t>7,7%</t>
   </si>
   <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
     <t>5,25%</t>
   </si>
   <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
   </si>
   <si>
     <t>94,75%</t>
   </si>
   <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
     <t>95,97%</t>
   </si>
   <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
   </si>
   <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -984,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C452D72-64D1-4C80-A48A-F555D020D9CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE010DF-547D-4431-A5D2-878F6CA7753A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1603,13 +1597,13 @@
         <v>14393</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1624,13 +1618,13 @@
         <v>311375</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>584</v>
@@ -1639,13 +1633,13 @@
         <v>420034</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>864</v>
@@ -1654,13 +1648,13 @@
         <v>731409</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1716,7 +1710,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1728,13 +1722,13 @@
         <v>20710</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>59</v>
@@ -1743,13 +1737,13 @@
         <v>25147</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>89</v>
@@ -1758,13 +1752,13 @@
         <v>45858</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1779,13 +1773,13 @@
         <v>164359</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>418</v>
@@ -1794,13 +1788,13 @@
         <v>199778</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>651</v>
@@ -1809,13 +1803,13 @@
         <v>364136</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,7 +1865,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1883,13 +1877,13 @@
         <v>2977</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -1898,13 +1892,13 @@
         <v>385</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -1913,13 +1907,13 @@
         <v>3362</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,7 +1928,7 @@
         <v>257800</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>114</v>
@@ -2351,10 +2345,10 @@
         <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>253</v>
@@ -2363,13 +2357,13 @@
         <v>149929</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M28" s="7">
         <v>425</v>
@@ -2378,13 +2372,13 @@
         <v>297619</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,13 +2393,13 @@
         <v>3129448</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>170</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="H29" s="7">
         <v>4964</v>
@@ -2414,13 +2408,13 @@
         <v>3566919</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>8045</v>
@@ -2429,13 +2423,13 @@
         <v>6696367</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,7 +2485,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C11_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C11_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86648861-CA28-42A9-99B0-AC75F421F788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{118810D1-85CE-4F7A-BF96-6EB9F9E158FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E64CAA20-59A4-4A5B-A9A9-8D6F9A825E84}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7C072756-7269-4B3A-983B-69F2C4F1D2B1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -978,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE010DF-547D-4431-A5D2-878F6CA7753A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA42C2A9-01EE-4B27-A83C-72A3B2194444}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P19C11_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C11_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{118810D1-85CE-4F7A-BF96-6EB9F9E158FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30B736E5-FA03-4C8F-B1AB-567F73E271A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7C072756-7269-4B3A-983B-69F2C4F1D2B1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AF561945-3E3B-4BD6-8A61-EE96A9C53720}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="179">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por implantes / solo 2023 en 2023 (Tasa respuesta: 96,88%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>7,7%</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
   </si>
   <si>
     <t>6,54%</t>
   </si>
   <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
   </si>
   <si>
     <t>7,11%</t>
   </si>
   <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>92,3%</t>
   </si>
   <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
   </si>
   <si>
     <t>93,46%</t>
   </si>
   <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
   </si>
   <si>
     <t>92,89%</t>
   </si>
   <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>2,86%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
   </si>
   <si>
     <t>97,23%</t>
   </si>
   <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
   </si>
   <si>
     <t>97,19%</t>
   </si>
   <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>4,22%</t>
   </si>
   <si>
-    <t>2,46%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
   </si>
   <si>
     <t>6,61%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
     <t>4,4%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
   </si>
   <si>
     <t>95,78%</t>
   </si>
   <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
     <t>93,39%</t>
   </si>
   <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
+    <t>96,94%</t>
   </si>
   <si>
     <t>95,6%</t>
   </si>
   <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -254,142 +254,142 @@
     <t>1,08%</t>
   </si>
   <si>
-    <t>5,51%</t>
+    <t>4,98%</t>
   </si>
   <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
   </si>
   <si>
     <t>98,86%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
   </si>
   <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>99,18%</t>
+    <t>99,34%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -398,10 +398,10 @@
     <t>99,36%</t>
   </si>
   <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -410,160 +410,166 @@
     <t>6,71%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
   </si>
   <si>
     <t>5,98%</t>
   </si>
   <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
     <t>3,84%</t>
   </si>
   <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
   </si>
   <si>
     <t>96,16%</t>
   </si>
   <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
     <t>95,97%</t>
   </si>
   <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
   </si>
   <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -978,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA42C2A9-01EE-4B27-A83C-72A3B2194444}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7709C43-B2B3-4536-9C28-24159DAF4B02}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1597,13 +1603,13 @@
         <v>14393</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1618,13 +1624,13 @@
         <v>311375</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>584</v>
@@ -1633,13 +1639,13 @@
         <v>420034</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>864</v>
@@ -1648,13 +1654,13 @@
         <v>731409</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1710,7 +1716,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1722,13 +1728,13 @@
         <v>20710</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>59</v>
@@ -1737,13 +1743,13 @@
         <v>25147</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>89</v>
@@ -1752,13 +1758,13 @@
         <v>45858</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1773,13 +1779,13 @@
         <v>164359</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>418</v>
@@ -1788,13 +1794,13 @@
         <v>199778</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>651</v>
@@ -1803,13 +1809,13 @@
         <v>364136</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,7 +1871,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1877,13 +1883,13 @@
         <v>2977</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -1892,13 +1898,13 @@
         <v>385</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -1907,13 +1913,13 @@
         <v>3362</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,7 +1934,7 @@
         <v>257800</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>114</v>
@@ -2345,10 +2351,10 @@
         <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>253</v>
@@ -2357,13 +2363,13 @@
         <v>149929</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M28" s="7">
         <v>425</v>
@@ -2372,13 +2378,13 @@
         <v>297619</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,13 +2399,13 @@
         <v>3129448</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>4964</v>
@@ -2408,13 +2414,13 @@
         <v>3566919</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>8045</v>
@@ -2423,13 +2429,13 @@
         <v>6696367</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,7 +2491,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C11_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C11_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30B736E5-FA03-4C8F-B1AB-567F73E271A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E67CC0AC-530E-433D-8172-A111C548A21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AF561945-3E3B-4BD6-8A61-EE96A9C53720}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{34A9BC07-C5C6-4551-B25F-CE682DC1FB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,505 +71,505 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>7,7%</t>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
   </si>
   <si>
     <t>5,25%</t>
   </si>
   <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
   </si>
   <si>
     <t>94,75%</t>
   </si>
   <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
   </si>
   <si>
     <t>4,55%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
   </si>
   <si>
     <t>95,45%</t>
   </si>
   <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
+    <t>96,58%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -984,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7709C43-B2B3-4536-9C28-24159DAF4B02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90653E08-1394-484E-9393-02E180BA8468}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1105,7 +1105,7 @@
         <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>19658</v>
+        <v>21559</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1120,7 +1120,7 @@
         <v>36</v>
       </c>
       <c r="I4" s="7">
-        <v>17632</v>
+        <v>18317</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1135,7 +1135,7 @@
         <v>64</v>
       </c>
       <c r="N4" s="7">
-        <v>37290</v>
+        <v>39876</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1156,7 +1156,7 @@
         <v>289</v>
       </c>
       <c r="D5" s="7">
-        <v>235612</v>
+        <v>283871</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1171,7 +1171,7 @@
         <v>495</v>
       </c>
       <c r="I5" s="7">
-        <v>251812</v>
+        <v>269290</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1186,7 +1186,7 @@
         <v>784</v>
       </c>
       <c r="N5" s="7">
-        <v>487425</v>
+        <v>553161</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1207,7 +1207,7 @@
         <v>317</v>
       </c>
       <c r="D6" s="7">
-        <v>255270</v>
+        <v>305430</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1222,7 +1222,7 @@
         <v>531</v>
       </c>
       <c r="I6" s="7">
-        <v>269444</v>
+        <v>287607</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1237,7 +1237,7 @@
         <v>848</v>
       </c>
       <c r="N6" s="7">
-        <v>524715</v>
+        <v>593037</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1260,7 +1260,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>14522</v>
+        <v>13970</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1275,7 +1275,7 @@
         <v>21</v>
       </c>
       <c r="I7" s="7">
-        <v>14967</v>
+        <v>13897</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1290,16 +1290,16 @@
         <v>33</v>
       </c>
       <c r="N7" s="7">
-        <v>29489</v>
+        <v>27867</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1311,46 +1311,46 @@
         <v>359</v>
       </c>
       <c r="D8" s="7">
-        <v>492982</v>
+        <v>493014</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>675</v>
       </c>
       <c r="I8" s="7">
-        <v>525127</v>
+        <v>487651</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1034</v>
       </c>
       <c r="N8" s="7">
-        <v>1018109</v>
+        <v>980665</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1362,7 +1362,7 @@
         <v>371</v>
       </c>
       <c r="D9" s="7">
-        <v>507504</v>
+        <v>506984</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1377,7 +1377,7 @@
         <v>696</v>
       </c>
       <c r="I9" s="7">
-        <v>540094</v>
+        <v>501548</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1392,7 +1392,7 @@
         <v>1067</v>
       </c>
       <c r="N9" s="7">
-        <v>1047598</v>
+        <v>1008532</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1415,46 +1415,46 @@
         <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>12964</v>
+        <v>12519</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
       </c>
       <c r="I10" s="7">
-        <v>16316</v>
+        <v>15212</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
       </c>
       <c r="N10" s="7">
-        <v>29280</v>
+        <v>27732</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1466,46 +1466,46 @@
         <v>328</v>
       </c>
       <c r="D11" s="7">
-        <v>294369</v>
+        <v>288673</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>490</v>
       </c>
       <c r="I11" s="7">
-        <v>341930</v>
+        <v>320063</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>818</v>
       </c>
       <c r="N11" s="7">
-        <v>636299</v>
+        <v>608735</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1517,7 +1517,7 @@
         <v>345</v>
       </c>
       <c r="D12" s="7">
-        <v>307333</v>
+        <v>301192</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1532,7 +1532,7 @@
         <v>517</v>
       </c>
       <c r="I12" s="7">
-        <v>358246</v>
+        <v>335275</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1547,7 +1547,7 @@
         <v>862</v>
       </c>
       <c r="N12" s="7">
-        <v>665579</v>
+        <v>636467</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1570,46 +1570,46 @@
         <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>8275</v>
+        <v>7742</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>6118</v>
+        <v>5722</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
       </c>
       <c r="N13" s="7">
-        <v>14393</v>
+        <v>13464</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1621,40 +1621,40 @@
         <v>280</v>
       </c>
       <c r="D14" s="7">
-        <v>311375</v>
+        <v>302378</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>584</v>
       </c>
       <c r="I14" s="7">
-        <v>420034</v>
+        <v>467743</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>864</v>
       </c>
       <c r="N14" s="7">
-        <v>731409</v>
+        <v>770121</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>84</v>
@@ -1672,7 +1672,7 @@
         <v>288</v>
       </c>
       <c r="D15" s="7">
-        <v>319650</v>
+        <v>310120</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1687,7 +1687,7 @@
         <v>594</v>
       </c>
       <c r="I15" s="7">
-        <v>426152</v>
+        <v>473465</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1702,7 +1702,7 @@
         <v>882</v>
       </c>
       <c r="N15" s="7">
-        <v>745802</v>
+        <v>783585</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1725,7 +1725,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="7">
-        <v>20710</v>
+        <v>18876</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>87</v>
@@ -1740,7 +1740,7 @@
         <v>59</v>
       </c>
       <c r="I16" s="7">
-        <v>25147</v>
+        <v>22976</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>90</v>
@@ -1755,16 +1755,16 @@
         <v>89</v>
       </c>
       <c r="N16" s="7">
-        <v>45858</v>
+        <v>41853</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1776,46 +1776,46 @@
         <v>233</v>
       </c>
       <c r="D17" s="7">
-        <v>164359</v>
+        <v>149553</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>418</v>
       </c>
       <c r="I17" s="7">
-        <v>199778</v>
+        <v>179316</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>651</v>
       </c>
       <c r="N17" s="7">
-        <v>364136</v>
+        <v>328868</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1827,7 +1827,7 @@
         <v>263</v>
       </c>
       <c r="D18" s="7">
-        <v>185069</v>
+        <v>168429</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1842,7 +1842,7 @@
         <v>477</v>
       </c>
       <c r="I18" s="7">
-        <v>224925</v>
+        <v>202292</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1857,7 +1857,7 @@
         <v>740</v>
       </c>
       <c r="N18" s="7">
-        <v>409994</v>
+        <v>370721</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1880,46 +1880,46 @@
         <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>2977</v>
+        <v>2855</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>3362</v>
+        <v>3214</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1931,46 +1931,46 @@
         <v>339</v>
       </c>
       <c r="D20" s="7">
-        <v>257800</v>
+        <v>250877</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>439</v>
       </c>
       <c r="I20" s="7">
-        <v>263823</v>
+        <v>245991</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>778</v>
       </c>
       <c r="N20" s="7">
-        <v>521623</v>
+        <v>496868</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1982,7 +1982,7 @@
         <v>344</v>
       </c>
       <c r="D21" s="7">
-        <v>260777</v>
+        <v>253732</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1997,7 +1997,7 @@
         <v>440</v>
       </c>
       <c r="I21" s="7">
-        <v>264208</v>
+        <v>246350</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2012,7 +2012,7 @@
         <v>784</v>
       </c>
       <c r="N21" s="7">
-        <v>524985</v>
+        <v>500082</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2035,46 +2035,46 @@
         <v>44</v>
       </c>
       <c r="D22" s="7">
-        <v>40744</v>
+        <v>39631</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>69</v>
       </c>
       <c r="I22" s="7">
-        <v>46745</v>
+        <v>43479</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>113</v>
       </c>
       <c r="N22" s="7">
-        <v>87490</v>
+        <v>83110</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,46 +2086,46 @@
         <v>537</v>
       </c>
       <c r="D23" s="7">
-        <v>566505</v>
+        <v>560064</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>854</v>
       </c>
       <c r="I23" s="7">
-        <v>734964</v>
+        <v>784886</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>1391</v>
       </c>
       <c r="N23" s="7">
-        <v>1301468</v>
+        <v>1344950</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2137,7 +2137,7 @@
         <v>581</v>
       </c>
       <c r="D24" s="7">
-        <v>607249</v>
+        <v>599695</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2152,7 +2152,7 @@
         <v>923</v>
       </c>
       <c r="I24" s="7">
-        <v>781709</v>
+        <v>828365</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2167,7 +2167,7 @@
         <v>1504</v>
       </c>
       <c r="N24" s="7">
-        <v>1388958</v>
+        <v>1428060</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2190,46 +2190,46 @@
         <v>28</v>
       </c>
       <c r="D25" s="7">
-        <v>27839</v>
+        <v>23522</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
       </c>
       <c r="I25" s="7">
-        <v>22618</v>
+        <v>18949</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M25" s="7">
         <v>58</v>
       </c>
       <c r="N25" s="7">
-        <v>50457</v>
+        <v>42471</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2241,37 +2241,37 @@
         <v>716</v>
       </c>
       <c r="D26" s="7">
-        <v>806446</v>
+        <v>885117</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>1009</v>
       </c>
       <c r="I26" s="7">
-        <v>829451</v>
+        <v>684975</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>47</v>
       </c>
       <c r="M26" s="7">
         <v>1725</v>
       </c>
       <c r="N26" s="7">
-        <v>1635897</v>
+        <v>1570092</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>157</v>
@@ -2292,7 +2292,7 @@
         <v>744</v>
       </c>
       <c r="D27" s="7">
-        <v>834285</v>
+        <v>908639</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2307,7 +2307,7 @@
         <v>1039</v>
       </c>
       <c r="I27" s="7">
-        <v>852069</v>
+        <v>703924</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2322,7 +2322,7 @@
         <v>1783</v>
       </c>
       <c r="N27" s="7">
-        <v>1686354</v>
+        <v>1612563</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2345,7 +2345,7 @@
         <v>172</v>
       </c>
       <c r="D28" s="7">
-        <v>147690</v>
+        <v>140674</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>160</v>
@@ -2360,7 +2360,7 @@
         <v>253</v>
       </c>
       <c r="I28" s="7">
-        <v>149929</v>
+        <v>138912</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>163</v>
@@ -2375,7 +2375,7 @@
         <v>425</v>
       </c>
       <c r="N28" s="7">
-        <v>297619</v>
+        <v>279587</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>166</v>
@@ -2396,7 +2396,7 @@
         <v>3081</v>
       </c>
       <c r="D29" s="7">
-        <v>3129448</v>
+        <v>3213547</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>169</v>
@@ -2411,7 +2411,7 @@
         <v>4964</v>
       </c>
       <c r="I29" s="7">
-        <v>3566919</v>
+        <v>3439915</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>172</v>
@@ -2426,7 +2426,7 @@
         <v>8045</v>
       </c>
       <c r="N29" s="7">
-        <v>6696367</v>
+        <v>6653461</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>175</v>
@@ -2447,7 +2447,7 @@
         <v>3253</v>
       </c>
       <c r="D30" s="7">
-        <v>3277138</v>
+        <v>3354221</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2462,7 +2462,7 @@
         <v>5217</v>
       </c>
       <c r="I30" s="7">
-        <v>3716848</v>
+        <v>3578827</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2477,7 +2477,7 @@
         <v>8470</v>
       </c>
       <c r="N30" s="7">
-        <v>6993986</v>
+        <v>6933048</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
